--- a/기본청구양식.xlsx
+++ b/기본청구양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonsuk/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wonsuk/Documents/streamlit/billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F82127-4EDB-9F44-ACC5-ED5D90C99AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F1ADC-E7FD-E548-9747-0BBD4E393BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="26320" windowHeight="14800" activeTab="2" xr2:uid="{FA864BB5-9A2D-4A02-AD0A-41547B285F48}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="26320" windowHeight="14800" xr2:uid="{FA864BB5-9A2D-4A02-AD0A-41547B285F48}"/>
   </bookViews>
   <sheets>
     <sheet name="청구서" sheetId="7" r:id="rId1"/>
@@ -1539,6 +1539,75 @@
     <xf numFmtId="185" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="45" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1569,78 +1638,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="45" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,6 +1652,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2760,8 +2760,8 @@
   </sheetPr>
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:P11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="17"/>
@@ -2775,24 +2775,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="150">
+      <c r="N1" s="127"/>
+      <c r="O1" s="128">
         <v>45299</v>
       </c>
-      <c r="P1" s="150"/>
+      <c r="P1" s="128"/>
       <c r="Q1" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="21" customHeight="1">
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
       <c r="L4" s="23" t="s">
         <v>48</v>
       </c>
@@ -2805,13 +2805,13 @@
       <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:21" ht="21" customHeight="1">
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="L5" s="23" t="s">
         <v>33</v>
       </c>
@@ -2824,13 +2824,13 @@
       <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:21" ht="28" customHeight="1">
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
       <c r="L6" s="23" t="s">
         <v>34</v>
       </c>
@@ -2871,40 +2871,40 @@
     <row r="10" spans="1:21" ht="18.5" customHeight="1">
       <c r="B10" s="33"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="151">
+      <c r="D10" s="129">
         <f>SUM(E20+G20+M20)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="152"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="153">
+      <c r="L10" s="131">
         <f>EOMONTH((O1+30),0)</f>
         <v>45351</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="154"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="132"/>
     </row>
     <row r="11" spans="1:21" ht="25.25" customHeight="1">
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
       <c r="I11" s="36"/>
       <c r="J11" s="37"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="154"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="132"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
     </row>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="157" t="s">
+      <c r="E15" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="158"/>
-      <c r="G15" s="155" t="s">
+      <c r="F15" s="136"/>
+      <c r="G15" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="156"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="59"/>
       <c r="J15" s="56" t="s">
         <v>49</v>
@@ -3006,29 +3006,29 @@
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
-      <c r="E16" s="141">
+      <c r="E16" s="142">
         <f>ROUND(DSUM(이용료!D5:$I$1048576,6,이용료!$O$2:$O$3),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="139">
+      <c r="F16" s="141"/>
+      <c r="G16" s="140">
         <f>ROUND(DSUM(이용료!$D$5:$I$1048576,6,이용료!$P$2:$P$3),0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="140"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="63"/>
       <c r="J16" s="61" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
-      <c r="M16" s="137">
+      <c r="M16" s="138">
         <f>ROUND(SUM(이용료!L5:L1048576),0)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
@@ -3041,29 +3041,29 @@
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
-      <c r="E17" s="143">
+      <c r="E17" s="144">
         <f>ROUND(E16*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="137">
+      <c r="F17" s="143"/>
+      <c r="G17" s="138">
         <f>ROUND(G16*0.1,0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="142"/>
+      <c r="H17" s="143"/>
       <c r="I17" s="63"/>
       <c r="J17" s="61" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
-      <c r="M17" s="137">
+      <c r="M17" s="138">
         <f>ROUND((M16*0.1),0)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="53"/>
       <c r="S17" s="53"/>
@@ -3074,10 +3074,10 @@
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="142"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="143"/>
       <c r="I18" s="63"/>
       <c r="J18" s="61"/>
       <c r="K18" s="62"/>
@@ -3096,10 +3096,10 @@
       <c r="B19" s="67"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="146"/>
       <c r="I19" s="63"/>
       <c r="J19" s="67"/>
       <c r="K19" s="68"/>
@@ -3120,29 +3120,29 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="73"/>
-      <c r="E20" s="147">
+      <c r="E20" s="148">
         <f>ROUND(SUM(E16:F19),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="147">
+      <c r="F20" s="149"/>
+      <c r="G20" s="148">
         <f>ROUND(SUM(G16:H19),0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="148"/>
+      <c r="H20" s="149"/>
       <c r="I20" s="63"/>
       <c r="J20" s="72" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="73"/>
       <c r="L20" s="73"/>
-      <c r="M20" s="138">
+      <c r="M20" s="139">
         <f>ROUND(SUM(M16:P19),0)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="53"/>
       <c r="S20" s="53"/>
@@ -3169,50 +3169,50 @@
       <c r="P21" s="73"/>
     </row>
     <row r="22" spans="2:21" ht="45.5" customHeight="1" thickBot="1">
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129" t="s">
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129" t="s">
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="153"/>
     </row>
     <row r="23" spans="2:21" ht="45.5" customHeight="1">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133" t="s">
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="131">
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="154">
         <v>54999831455437</v>
       </c>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="155"/>
     </row>
     <row r="24" spans="2:21" ht="28.25" customHeight="1">
       <c r="C24" s="36"/>
@@ -3421,42 +3421,42 @@
     <row r="38" spans="2:20" ht="24" customHeight="1"/>
     <row r="39" spans="2:20" ht="24" customHeight="1"/>
     <row r="40" spans="2:20" ht="25.25" customHeight="1">
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="135"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="158"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="158"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="158"/>
     </row>
     <row r="41" spans="2:20" s="89" customFormat="1" ht="25.25" customHeight="1">
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
+      <c r="K41" s="159"/>
+      <c r="L41" s="159"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="159"/>
+      <c r="P41" s="159"/>
       <c r="Q41" s="87"/>
       <c r="R41" s="88"/>
       <c r="S41" s="88"/>
@@ -3568,20 +3568,20 @@
       </c>
     </row>
     <row r="52" spans="3:28" ht="26.25" customHeight="1">
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
-      <c r="N52" s="127"/>
-      <c r="O52" s="127"/>
-      <c r="P52" s="127"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="150"/>
+      <c r="P52" s="150"/>
     </row>
     <row r="53" spans="3:28" ht="15" customHeight="1">
       <c r="C53" s="100"/>
@@ -3610,20 +3610,20 @@
       <c r="M54" s="101"/>
     </row>
     <row r="55" spans="3:28" ht="24.75" customHeight="1">
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="127"/>
-      <c r="N55" s="127"/>
-      <c r="O55" s="127"/>
-      <c r="P55" s="127"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
+      <c r="K55" s="150"/>
+      <c r="L55" s="150"/>
+      <c r="M55" s="150"/>
+      <c r="N55" s="150"/>
+      <c r="O55" s="150"/>
+      <c r="P55" s="150"/>
     </row>
     <row r="56" spans="3:28" ht="15" customHeight="1">
       <c r="C56" s="100"/>
@@ -3727,14 +3727,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="C55:P55"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B40:P40"/>
+    <mergeCell ref="B41:P41"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M20:P20"/>
@@ -3748,16 +3750,14 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="C55:P55"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B40:P40"/>
-    <mergeCell ref="B41:P41"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3785,13 +3785,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="23">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="11"/>
     </row>
     <row r="6" spans="2:7">
@@ -3804,10 +3804,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
@@ -3819,10 +3819,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="165"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="5">
         <f>DSUM(이용료!D5:I1048576,6,이용료!$O$2:$O$3)</f>
         <v>0</v>
@@ -3837,10 +3837,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="165"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="5">
         <f>DSUM(이용료!D5:I1048576,6,이용료!$P$2:$P$3)</f>
         <v>0</v>
@@ -3855,10 +3855,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="165"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="5" t="e">
         <f>ROUND((F11/1.1),0)</f>
         <v>#REF!</v>
@@ -3873,10 +3873,10 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="165"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="5" t="e">
         <f>ROUND((F12/1.1),0)</f>
         <v>#REF!</v>
@@ -3909,7 +3909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC8C33E-91E8-44DD-9395-C04E706CC52D}">
   <dimension ref="B1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W41" sqref="W41"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
